--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/16_Bilecik_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/16_Bilecik_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FAAB000-20E6-4E60-8AFA-33AAE5D1B476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24A1EAB4-8CFB-4BAA-9AE2-511EC70CF1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{5CD4583D-8D2E-4792-9FAF-688CD38859C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{192C3017-14B3-4C27-A5B2-C8BD5F9B68A7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -960,15 +960,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C7EC2146-AAE1-401C-A820-6EC3D665730F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5E9A1A60-3521-4A7C-A039-9083131AB981}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B018C70E-8650-45CF-A864-AE77EB33B103}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{BAE31F36-65F1-40A4-A4C3-72345D195E4E}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{058567F7-3376-47F9-B71D-E5A682D05DE7}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{0978B22A-1B03-47C8-9EC4-3C9BB17EC34B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{79B5B168-6348-472D-AB04-2A4AAFA63FF4}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{46131EC3-C606-4928-8FCF-5D8394110039}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{BBCAC418-E1D1-4009-80C0-E3E4DC0E04FD}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{60D9AAB4-1751-4111-B2DE-FD36AE201C23}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0653F6E0-25A2-4CCE-9952-0DDDCB119F91}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D2FD914C-BAC6-4E32-847B-A0D77B5414CF}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{30A278EB-D464-4377-9C8F-C7B3466279B2}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{88497570-A505-4784-9588-684F13CA6925}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{68240779-0E34-4336-ABD7-A59F6692CB2A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{347884EF-BFB2-48BE-9A72-4924F37954DB}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{31221097-AAF7-44F3-907A-A763770026F0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{EB2C61C0-37C7-4242-86F8-A08DC8A5B0DE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1338,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491D9855-B75D-4E9E-8C7F-33F4D59201A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365E2C3C-CAAE-4435-9D97-161B5214FEE1}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2554,18 +2554,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B335C2DB-6495-4722-8CCE-38E93E6F1C15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D55E5C8C-8ACF-41B5-8A8D-9EB1E3C93673}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E5948718-E777-4028-9CA3-D409EE61C2FE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{677AF4D1-DE6B-49F5-9998-0C4A12AD17DD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{998E1421-4ADE-4825-BC92-68ADEFDF8E69}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70BFEA5B-7E45-4E11-B0EF-5E9A3D61C82F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25892C05-712D-40BF-B608-578ED9D952C1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{847400E8-C7B2-4BEC-9240-E2310BE8565C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9FF2226-B9DC-467D-8B73-C684FD9201D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{864B45AF-812A-4651-ADD5-E76A1D614778}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA9CA9B5-3C32-4873-AC75-1A61479146D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7154324-45D9-4A70-8752-08771C5A51D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E69E59C4-BE97-46FB-BECB-DE0832895135}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01812245-BF2B-4408-8998-B64468F560FF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C9C277F3-4BB3-44DA-94C3-71008EACBC86}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7DAF9EFD-E1A4-4944-9800-590BF7DE9A5B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DC4C3D2B-99CE-4330-8574-07C5E5B781D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E71A20C-9BF2-4F20-80BF-18F6B89D32F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{981D46D8-A542-4748-B8CF-95F548EA7A8A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0FD627F6-9153-4E2E-ABB4-DE1C7ECBAD67}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF78E099-5DBC-42CC-948F-174AD72A6906}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D477D1E6-6234-48E5-88ED-2EC679E1F24C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{225232FA-3854-4072-86D6-74545415ACA9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E83BA717-2FF0-476E-9234-FCABA0169D7A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2578,7 +2578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF6FB-C303-4F80-907D-AF98682AA91E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB088CA7-E6FC-4E4E-894A-655324FAC09C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3779,18 +3779,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93866129-E1AF-4CF0-BDDE-B6CA2899B4AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{227BC700-A07A-4BDF-BE74-97C878B7B42A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F036867F-655F-4849-9873-9FD5329AD39F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D83CC5C1-A0A1-4D65-9507-F14BF14664C0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{409EEE99-E0E6-4B5A-8B63-BADDEBCDCD1E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAD5AE04-7B96-47A7-9A2B-C3E5CD33BD80}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65CD4094-563F-4231-BE26-232159268617}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6F8EEB0D-076A-4964-90D1-29BE53B7822E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A22E31D4-07B9-4043-B44A-6033EF626826}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{77FDB774-E493-4D3B-9172-370B7D8559E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5A46A5D-CAF8-45C4-B801-CA28E32E43D4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8592F9F5-52E0-4C0F-81B0-A15D29814A68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2417185-785D-44AD-97ED-7F6EAFEA5A92}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26B28EF5-511A-4935-ACC1-4474A792349E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{76AE17D8-0C43-4F82-9E3E-4EA2C7954C33}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3D267D02-BB45-4765-9E41-A96F10ED58E8}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B6A3EAE6-315F-4397-A791-CE75E577F42F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F72F13D1-B5BF-42C9-BC7C-6AEA2D1E8E3B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8A13AFB-B67B-45A4-9DC4-62E98359BEB3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8EE47EAC-BFA2-4ED8-9D57-317388C927C9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{345569A6-17EB-4269-8E1E-73D57D0634C7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F64742E9-6C8D-4B8F-86A2-E5B972D3827B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3B2F2ED-BA2A-4E08-B74D-58994766A0FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{209C8E7B-604E-455D-A686-F509D07160BD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3803,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B9DE98-BAD3-4538-BEDF-B5D370B8FD10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D0149E-33FE-4076-A6C3-2C391AE8F1DE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5004,18 +5004,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1EFDEADE-9F23-4B28-9CA9-2B876E29ABFE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82B619D4-83F6-45D9-AA39-6A146AD4B4C0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E86CE9F-5534-4C00-8D46-D56B745D8C27}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA92FB49-B823-4333-9EC7-34A9E4BA42FB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0B2B4268-CA69-4BB9-A4C7-A3F610002056}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0CBA758E-007F-432F-A6A4-25C876E29000}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B384CA74-51EB-492C-9208-2242875EA8D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{74B64EA2-E29B-4BA1-A805-1580EC4E8570}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED96A627-D0DA-4B2D-9561-A6C617DDC6AC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{927593B1-70BD-4947-90F4-CB24E92631CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91ECE410-F114-4485-9DD0-B94BB5BEC0E6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{01451725-989B-4651-BC3A-A059E464001B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{667C7721-2359-4768-9395-3CF34BBF0483}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20094A43-6D2E-4C2E-8369-56E2EC2EFCDB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{71DE3015-C69F-409E-BFA4-708D0076CEB5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABDADA59-1865-461A-A31E-ECE520C31CD7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3770FC01-5526-4F59-B672-A83FA821FC5B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4CE984C0-DCF5-4815-BF8F-4F802ECF5C59}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4929E0FD-8B60-46FC-9619-21EACBC61568}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FD2764D-C608-4667-8F3F-73C811000A45}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D85293E-71ED-402C-A253-B6B61E150312}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C570ED2-64B0-4E12-B260-C13098A7C2F7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92D262D8-D6E2-4400-A2B3-3AB37507C040}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8694C345-91EE-4E9A-8486-4D2C5831CD11}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5028,7 +5028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CC801F-2641-4B85-960A-E54DE38E39D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F391E778-6A88-4F26-A327-6806B19494C7}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6224,18 +6224,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9458E374-35E6-46F8-B146-D2323E2E6A2D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01F59B74-5295-421F-8796-35FDF69CC336}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F676F44-C7B4-42E9-995A-23A0E85D9ED1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F4FD57C-AD20-4F4E-A43D-985C8C31EFA2}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{61FA95D2-A2BB-4250-A32A-92CB64D2E2ED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB5E4B42-F318-45AD-A83C-9EC061BF6D63}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18729F5C-A921-4540-9E80-877F66CD5A8D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C9FE9DBE-5CA6-4EDB-B4BC-0F54BDAE6F87}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{300DEEAB-3EB0-4B72-9767-2A9AC42A6F93}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF1CE6AF-648C-4ACC-BEC5-9CDEFB0D8F4D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F856ABC2-C42F-411B-9070-340BE1C896CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64CB2A67-2FC5-4096-B57C-6D95DA077791}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01ECAEEB-16F5-4A67-A7E7-2CC0D657E200}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA36A53E-F7F0-4C33-9E4D-B58FD4FBF9B8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{27FC418C-3003-4371-8CBF-880B6488320E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D605EC7A-E28E-4D0B-AD8A-12498F7548C2}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DFFB71DA-1F36-4024-B509-70627B5182FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F457A013-21B4-48F2-B7CC-9755A899BC11}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5CD3A8B-55AF-4AE9-A199-6F38EEFD73D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BABFBB0E-A2CD-4B09-AB4C-568D844F5978}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FE2EEA1F-2B2C-45B0-BADE-3AB8F6850BBD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{143DFCDD-822F-45CB-B538-89F6D4FCA1D7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AEFD0AAE-526F-444B-B6C3-A9299793217D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14FB784A-3C0C-435A-89B7-5BAE221EE055}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6248,7 +6248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F493F3F1-6480-43CD-9F8C-5E7A063E02B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665DA703-ADB6-4499-87A4-0993B4C4E1E8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7461,18 +7461,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7BC2838-A83D-4DC0-B62D-A6990EF4D81C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF35CA63-6FE8-4AF9-9390-A217A285562D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC68E53B-B04E-4A17-A886-322100918F48}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D01A9B4B-506E-401C-B631-C5C7910400DC}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{71C4D640-ACC9-40C8-9295-F7A4FB248FA0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A51E322-DD7F-4877-9EEF-1C44238311B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D26C64BD-6802-41B1-808B-D4126B385483}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69A35E0A-A328-4BAE-B431-BFBB43207836}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B2838AF-0843-4C40-BDD2-D6CC5EAFAC1E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C6EBAB5-BEBA-4E3C-8EFF-1CE441E00135}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5800828-3B26-426D-9F51-C03B3717E491}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19A86807-31FB-4EF6-8058-109C892D2A1B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8DF33263-8BD5-452F-8AAF-9A2F32164941}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E3AD0A6-83B9-4212-8F75-B134D6EDF37F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F4B16763-2E03-4499-8C5A-AA7AB6D425BB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B5981AE-849F-4F81-A710-8DDAB9BAB59A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{47EC8CFA-F945-4C20-8CD1-2EB94AB0299A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66C30C9A-E2BD-49AF-B5D1-66254476BDC5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8272DE79-62FE-4307-B4AA-64BC3871F345}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E675A832-8884-4440-98BB-BD92792A000A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{412EEA69-8290-4A34-BF97-5E05192E6BAC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BE328283-AEA1-4C2A-AAE0-027466DE0FD7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C04F847-1888-42B6-A0A9-B76DCDC18D65}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3AC92632-E736-4736-ACEA-CDFDA52086C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7485,7 +7485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3E6DC9-753B-47B1-9F18-B860993A2ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AA67ED-63B6-4178-B702-DD2731F887FE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8698,18 +8698,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8486130B-3610-4EFD-8F46-FE0E4A894558}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2110DC51-F932-4BFC-9CF1-665A878648B7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F7AE32DA-1B5D-49DD-A759-D521EC5E7793}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{50945574-BD55-40D6-BC9D-A3C09E29C9DD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7BC86D30-B28C-4DD0-A938-6020D22C8120}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DCFDB072-89FE-4D2C-AA37-F5C63F154ECC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25252FBE-17FE-4E0E-89A6-73BBD8F0140F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED410E5C-3EC8-4DE5-88D2-61EE2F25C7F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80ECA5D2-03E7-47BE-9E75-C8B4F884DD5E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{77B6559A-73E6-4C6A-8CAD-3018657ED628}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5E376CA-3F90-413D-B517-3DC6A97F4672}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30D6A9A3-6D86-4ECB-A247-69381420CEC4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78FADFEE-1E2C-4729-9E3E-8F6ADD0F5F2E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{074467D0-1091-4A38-AEA0-29B86B80D534}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{03D50A66-66F7-4E5C-A63B-79ED21E5FDF7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE98933A-44C7-4D68-BBF5-AE8B92EB487C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AE1777A9-B556-4AD7-BAC0-167C4D603679}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3018E042-68B4-4B14-8DB6-BD968F4950B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33AA40FE-1ED5-456C-A974-D044C22BD0A5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{76E9BF60-25AF-40B7-9FC6-0CFF03115982}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA4DC316-510D-45FF-AC75-632E59E8EE13}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E09508D2-FE09-4EFD-A2F1-BA293BCE0654}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1AF7F4A1-2296-4A49-84C0-AC53246422E4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE6EAC6A-3505-4B54-A1BB-3626009EF372}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8722,7 +8722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBCD953-AE53-4E44-A50D-DC7DB84F9A6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B186E3-0030-44FA-94CE-D94E50E90C9F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9935,18 +9935,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6BB274E-889C-4BDF-9823-C3B0E20A653B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4FDB1189-DF70-4C26-A376-A6B2C4A799EF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CDB2D0AC-9543-4DC2-8F0D-E6D65C655971}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4683271C-8FA0-44D5-8A34-5F7628672A30}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{283BAE47-0D29-4AB7-A836-BFABCCB9420C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6AFB676A-A4FD-45C6-9BA3-C6570296B667}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F3DACEB-CFD3-45DE-A808-35A669E4BFA1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9767F699-9356-4231-ABA0-7F607F93DDA2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F51D2F2A-2C1F-4E4D-926D-A451834DC81B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE1C11A1-E6B1-44B7-A42D-2D76B662538F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77BDFCCF-21C0-4158-9A58-74A597DF5EDA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F76294E-FE64-43BE-95A2-7DC0637890E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F522F598-9629-480D-85C4-D7B7889B05EA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECD25E07-E59E-4EB2-A36A-FB8F606AE95D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{942A76DD-9867-433A-9EC7-564D92407E88}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4F24F81-7FBD-46B1-BD61-2853817E9F08}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3FC6AAA7-12E2-4ADB-99E9-02BA37825F54}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F18BF57A-D21A-4722-8F2B-9F963AAFC582}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4440FF74-7076-444C-9377-EE849F07A141}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6578098D-611F-47B0-854B-7377F8611CC1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87B1ECCD-EAA2-48E4-97C4-418EE40426D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ED953997-D7D8-4B5A-8F50-71BDB77AEB85}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{868F0582-507B-4E37-9981-FB158D71DB4D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F011EA4E-C326-4BFB-AD58-6F65D4869E4D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9959,7 +9959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A222719-F623-4DBA-9356-31C9CDC48086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB1B1A0-F9A1-4985-B3BB-D406FFEB6F51}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11172,18 +11172,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69AC8065-DDF1-462E-90EB-3E80F1784D8D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD238236-DD6D-4B49-860D-DE437FB2F769}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D72FC235-F31A-414F-98FA-B0B4D96272E7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{79D8889B-ED0E-404C-8D63-C4A4227F2AE6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{44FD1319-95C2-4DE6-8FDF-9F09DD54E3FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{428891EB-850E-4792-B81B-A99EF25B48A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89C93941-01AD-45CA-8722-131AAB471F96}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31EF515B-201B-4DFA-959B-94355DC3E36F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2203ECD4-A6CE-46B3-BCC8-374980656E19}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{919FFC8C-FC0A-4990-AD6C-87C7BDB92DBB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23DCC089-1B28-4CC1-AA43-B7EACF6DB18E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C83A824F-37B5-495F-B2AE-1B0AFA5A7D1F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CFB46E5-B5AF-4714-91F4-0F73BF7255A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{650E6ABF-1555-448E-951B-3171A573D494}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8A4E19F9-62A2-4D0E-AEE5-E94A6460585E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0CD623F2-4CDE-47D3-B020-C3017C93538F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{56BA70D0-0329-4562-ACD7-981910A548D0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F6DDD02-EB77-40EC-AE2B-8DA441DDD27A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5016B116-53F3-4FF0-BCBC-9C792005EE34}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D7BDCF6C-C871-41F3-A2DB-36598365530A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4EABA024-0D13-42FB-9688-CB1670B28FCA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90CA5F21-D425-4023-B87B-D26786540419}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0A76849-2EFC-42DC-87A4-8AAAF1C0BA1C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77FD5C61-613B-4A10-AC6D-023E17B01274}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11196,7 +11196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989B7FAE-EDEB-4305-BBD5-A3426D81AF7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622B20FD-4CAB-4CC4-9306-88A8BD649950}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12409,18 +12409,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37D95F6A-6FB9-48C2-8604-983EBDAFA3EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCE0AE23-B359-41C9-9727-125004E274DD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{233470BD-D879-4000-87C1-0661D648B7CF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AEBF56D5-B72C-4457-87A8-856531F5DF9A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{631BC1D2-9C45-4EB6-BAA2-204B3BC64162}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36F02483-E354-4DB5-ACE9-18E38517D4C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA20A969-CF19-4E20-A0BD-A6F9A0240475}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B755A97-0170-4B81-A68F-E125F0218A6C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{900B3D4D-F570-4586-96F4-27FDB9EED450}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8C7EAB3-6640-44C3-9324-64B09F2DC070}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69BD071C-3E5A-48FB-A2D6-E80DE8778F1C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7CE1218-C350-4A50-A926-2202E754729E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE89511D-EE10-4702-AB5E-DE160C4AF551}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2BA5503-43BD-4706-AABD-A37FA668F453}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{648943B8-F27D-4AD7-8D5C-6E9C82659475}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A22ED7CF-A160-4B86-9EE8-76937920673B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6D48BDC5-108F-46ED-8019-5CDFF791563D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{359BA12A-5A2D-45FE-AAE5-F8D4AE4C01D1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90CF15F2-11C7-4FF2-918C-E619DEB35939}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB928632-D0D6-4277-A1CA-961331B3AEF4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58D17880-28F8-4592-ACD5-28C73281C381}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43C1D65A-797C-4422-A687-20A209560327}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50884E09-157D-4138-AA01-EBB7A9D3CB7A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E67680B9-7F3F-47A9-A19A-C2B62977DACF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12433,7 +12433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FA9D86-B751-417A-8B96-B4EE3F7FE8E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE62EB4F-32CF-4423-8F01-55BAEB430143}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13646,18 +13646,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3CCA7B3-49D8-4369-93B7-07A22D4015B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FFB47DD9-B2FD-4796-BFB6-D1223B8F095C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{402FC0BB-9AAB-4CA0-8178-6DC33E460EA5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{740F1269-D57B-4EAB-B056-41ADD366576A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{36F97D8D-5756-46D0-8D97-B33F3F3BB75F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EAE43FB6-2D01-40DA-AF35-FD1737388B9E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19431DE3-E029-450B-8DDD-FE80C9A9623A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB23B0EC-11C3-42B2-82C0-5B8E69567B36}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CAC5FC3-77AE-487A-8614-74B58F1F8827}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{354C435E-6E56-4928-8AE9-73E57C3C9C48}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8775A32-9413-49E6-BB72-C6FF4272112C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{641A47B0-98AA-494B-8142-1B8BFBDEF7A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C330642-7583-4561-9165-98041EFAB271}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B5D79FB-21AF-4105-A646-A79685B9CA7E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FB187822-F024-4829-BFAE-72F557A1DA3B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{338BCEE4-7486-4BDB-8655-7802672694FE}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E450241A-2B18-4D9F-A6B6-8E5B0C7D63B9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E75F40A2-4F97-481C-8C47-9345EA464C5C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1A0BAB0-58B0-4BF0-9C48-82F2154B1F3E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{14EF0A4D-F851-45B9-94D9-D29F66F84BCF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4566B31-E297-4788-96CF-D14ACB4B578B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{735EE257-F6B7-4987-9D70-D3C79BB43171}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1535B40-CE5A-4E4B-9FB6-6AFD29551EB3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D9B6451-F725-44E8-AB51-4E1F32D0FF45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13670,7 +13670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE5E686-BA44-4C9F-A628-54DC70AECBB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E0AFA6-D2EB-445D-98D3-B4CE26119F4C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14883,18 +14883,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0423640-1609-43DE-B55F-899C28B16C23}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7F2F28A-D072-42DC-9AC5-DB2F52ACDE60}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B9A30A7F-DC11-486A-B6C4-3E590C55EBE2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{886D1192-605E-41D2-B09F-38F6D34556EB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AF5E570F-CFA2-45E5-AA2C-C25E40F16BEE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{044F22E1-FC32-4C2D-BA92-A1257EDCB315}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEDE3AB2-19EB-4694-B359-986E46E4FD8D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8BFCF0A8-EDB6-4CA4-A7E8-6B9E7C517932}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{737DC5FD-799B-49DF-8C8D-7F73F7D2100A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0F9FB57-8A9C-4B50-9666-0DA18DF5C53F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E4F6878-CF16-4C05-AB8E-2F598A9CB7CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6671DE9E-8188-4240-93D0-97CA6F6EA5B5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0CD2EE3-0A06-43A7-AD9F-AE8CC3289CC1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A5D65AB-C32B-454D-8184-B839CEC35DCD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8A48A147-726D-40C9-BA36-5D4B96857994}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5A67633-98BC-41CF-BAC4-0AC3EE1D1AB7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{42A1AECB-B9CA-4984-8021-0D8F40B8EF1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{268480B2-F2E8-401A-9CC3-F7C710D121B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9301D198-3595-4B5B-8E0D-43F6371073E6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{068F5DFD-827E-425A-ABD4-8622DE6DC38A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F31FB956-92C3-4DE8-92FB-136AF374DDB6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29A9EF56-F463-41DD-A82C-74376F48EEC1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AAAC7BF-F3E5-44B6-9DDF-C30A53ADCB19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BAE29E41-E365-48FB-B29E-D4A2E3FB69A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14907,7 +14907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B864A16-0286-47B0-9A89-DCB523C8561E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AEE16D-E4B7-4CC7-896F-BE501CF8FC98}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16116,18 +16116,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03271320-054B-4E9B-B44D-0433A71347D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9D61926-6773-41DE-9CDC-37CA81A52599}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F010F84E-47EF-459C-91FB-7627987F5E46}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{878376AC-E284-4B0D-B52D-DBFFE40F63A8}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{085A4E31-F150-487A-A3F8-B92C5F66E33B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2999EE1D-5CCB-428B-BEAD-7A9D578694EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D769B0D-305C-46A3-B867-3517C36B16B0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{47012CF1-60AF-425B-BDC5-59FB9D9ECEDE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7703276B-59B7-4621-AA84-5872FEC1A2F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{051EC607-0A81-4459-8F8B-BD3DCEBA0817}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0EC1426-B29A-4952-A969-74C1932AE969}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5DEAF312-2FD6-4956-9791-EB0C5ED9FDCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3CD1D25D-4E03-4AE7-94DD-E572DDA33E69}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB69E1BD-C631-4057-A358-83C217B22C1D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BFE4DF45-256F-428E-8C07-CAFFB1E18897}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6AAA3CD6-EAB4-4D94-A854-B47444794335}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{241B261B-68CB-4EF3-8A16-374FA6BFB22A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EB89D3CF-DA58-46AF-9A83-DD679287E830}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35570466-ED29-4415-95A3-3CCF92DD9F66}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{23AC3F3A-E6D4-4F7A-A263-43ACB44508A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53B47C0B-A3FA-4F52-964F-957801080403}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{748BDAB7-4A88-45FA-8B02-ECA827754468}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0870BC75-530C-4AD6-B0F8-98D316263364}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23813B95-B758-43A0-93B3-BD868F38ED10}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
